--- a/dev/api_constants.xlsx
+++ b/dev/api_constants.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\git_hub\gm_consult\information_retrieval\oxford_dictionaries\dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A458BFB8-C667-4B88-A038-87122470C859}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0C86ED5-7AC6-40C0-9CA6-A73C701FC4BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21840" activeTab="1" xr2:uid="{17A7E07E-03FD-4E0F-A7E0-08FF44F9F9EE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{17A7E07E-03FD-4E0F-A7E0-08FF44F9F9EE}"/>
   </bookViews>
   <sheets>
     <sheet name="raw" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -712,10 +712,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBC4A34B-E27A-4C93-BBA5-A571EEF0755A}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:M38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:M1"/>
+      <selection activeCell="B2" sqref="B2:B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2293,10 +2294,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C818EBC-DD1E-416C-A2E5-C5142741E6A7}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AW13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="X2" sqref="X2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2304,12 +2306,11 @@
     <col min="1" max="1" width="26.42578125" customWidth="1"/>
     <col min="2" max="2" width="44.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="96.42578125" customWidth="1"/>
-    <col min="4" max="6" width="9.140625" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="118.5703125" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="17.140625" hidden="1" customWidth="1"/>
-    <col min="9" max="10" width="17" hidden="1" customWidth="1"/>
-    <col min="11" max="48" width="9.140625" hidden="1" customWidth="1"/>
-    <col min="49" max="50" width="9.140625" customWidth="1"/>
+    <col min="4" max="6" width="9.140625" customWidth="1"/>
+    <col min="7" max="7" width="118.5703125" customWidth="1"/>
+    <col min="8" max="8" width="17.140625" customWidth="1"/>
+    <col min="9" max="10" width="17" customWidth="1"/>
+    <col min="11" max="50" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:49" ht="84" customHeight="1" x14ac:dyDescent="0.25">
@@ -2460,7 +2461,7 @@
         <v>Entries</v>
       </c>
       <c r="B3" t="str">
-        <f>"OxFordDictionariesEndpoint."&amp;LOWER(I3)&amp;J3</f>
+        <f t="shared" ref="B3:B12" si="0">"OxFordDictionariesEndpoint."&amp;LOWER(I3)&amp;J3</f>
         <v>OxFordDictionariesEndpoint.entries</v>
       </c>
       <c r="C3" t="str">
@@ -2634,7 +2635,7 @@
         <v>Words</v>
       </c>
       <c r="B4" t="str">
-        <f>"OxFordDictionariesEndpoint."&amp;LOWER(I4)&amp;J4</f>
+        <f t="shared" si="0"/>
         <v>OxFordDictionariesEndpoint.words</v>
       </c>
       <c r="C4" t="str">
@@ -2642,7 +2643,7 @@
         <v xml:space="preserve">{'en-gb', 'en-us', 'fr', 'gu', 'hi', 'lv', 'ro', 'es', 'sw', 'ta'}, </v>
       </c>
       <c r="D4" t="str">
-        <f t="shared" ref="D4:D12" si="0">_xlfn.TEXTJOIN(": ",TRUE,B4:C4)</f>
+        <f t="shared" ref="D4:D12" si="1">_xlfn.TEXTJOIN(": ",TRUE,B4:C4)</f>
         <v xml:space="preserve">OxFordDictionariesEndpoint.words: {'en-gb', 'en-us', 'fr', 'gu', 'hi', 'lv', 'ro', 'es', 'sw', 'ta'}, </v>
       </c>
       <c r="H4">
@@ -2808,15 +2809,15 @@
         <v>Inflections</v>
       </c>
       <c r="B5" t="str">
-        <f>"OxFordDictionariesEndpoint."&amp;LOWER(I5)&amp;J5</f>
+        <f t="shared" si="0"/>
         <v>OxFordDictionariesEndpoint.inflections</v>
       </c>
       <c r="C5" t="str">
-        <f t="shared" ref="C4:C13" si="1">"{" &amp; _xlfn.TEXTJOIN(", ",TRUE,L5:AV5)&amp;"},"</f>
+        <f t="shared" ref="C5:C12" si="2">"{" &amp; _xlfn.TEXTJOIN(", ",TRUE,L5:AV5)&amp;"},"</f>
         <v>{'en-gb', 'en-us', 'hi', 'lv', 'ro', 'es', 'sw', 'ta'},</v>
       </c>
       <c r="D5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>OxFordDictionariesEndpoint.inflections: {'en-gb', 'en-us', 'hi', 'lv', 'ro', 'es', 'sw', 'ta'},</v>
       </c>
       <c r="H5">
@@ -2982,15 +2983,15 @@
         <v>Lemmas</v>
       </c>
       <c r="B6" t="str">
-        <f>"OxFordDictionariesEndpoint."&amp;LOWER(I6)&amp;J6</f>
+        <f t="shared" si="0"/>
         <v>OxFordDictionariesEndpoint.lemmas</v>
       </c>
       <c r="C6" t="str">
+        <f t="shared" si="2"/>
+        <v>{'en', 'de', 'hi', 'it', 'lv', 'pt', 'ro', 'tn', 'es', 'sw', 'ta'},</v>
+      </c>
+      <c r="D6" t="str">
         <f t="shared" si="1"/>
-        <v>{'en', 'de', 'hi', 'it', 'lv', 'pt', 'ro', 'tn', 'es', 'sw', 'ta'},</v>
-      </c>
-      <c r="D6" t="str">
-        <f t="shared" si="0"/>
         <v>OxFordDictionariesEndpoint.lemmas: {'en', 'de', 'hi', 'it', 'lv', 'pt', 'ro', 'tn', 'es', 'sw', 'ta'},</v>
       </c>
       <c r="H6">
@@ -3156,15 +3157,15 @@
         <v>Search</v>
       </c>
       <c r="B7" t="str">
-        <f>"OxFordDictionariesEndpoint."&amp;LOWER(I7)&amp;J7</f>
+        <f t="shared" si="0"/>
         <v>OxFordDictionariesEndpoint.search</v>
       </c>
       <c r="C7" t="str">
+        <f t="shared" si="2"/>
+        <v>{'en-gb', 'en-us', 'fr', 'gu', 'hi', 'lv', 'ro', 'es', 'sw', 'ta'},</v>
+      </c>
+      <c r="D7" t="str">
         <f t="shared" si="1"/>
-        <v>{'en-gb', 'en-us', 'fr', 'gu', 'hi', 'lv', 'ro', 'es', 'sw', 'ta'},</v>
-      </c>
-      <c r="D7" t="str">
-        <f t="shared" si="0"/>
         <v>OxFordDictionariesEndpoint.search: {'en-gb', 'en-us', 'fr', 'gu', 'hi', 'lv', 'ro', 'es', 'sw', 'ta'},</v>
       </c>
       <c r="H7">
@@ -3330,15 +3331,15 @@
         <v>Search Translations</v>
       </c>
       <c r="B8" t="str">
-        <f>"OxFordDictionariesEndpoint."&amp;LOWER(I8)&amp;J8</f>
+        <f t="shared" si="0"/>
         <v>OxFordDictionariesEndpoint.searchTranslations</v>
       </c>
       <c r="C8" t="str">
+        <f t="shared" si="2"/>
+        <v>{'en', 'ar', 'zh', 'de', 'el', 'ha', 'hi', 'id', 'xh', 'zu', 'it', 'ms', 'mr', 'nso', 'pt', 'qu', 'ru', 'tn', 'es', 'tt', 'te', 'tpi', 'tk', 'ur'},</v>
+      </c>
+      <c r="D8" t="str">
         <f t="shared" si="1"/>
-        <v>{'en', 'ar', 'zh', 'de', 'el', 'ha', 'hi', 'id', 'xh', 'zu', 'it', 'ms', 'mr', 'nso', 'pt', 'qu', 'ru', 'tn', 'es', 'tt', 'te', 'tpi', 'tk', 'ur'},</v>
-      </c>
-      <c r="D8" t="str">
-        <f t="shared" si="0"/>
         <v>OxFordDictionariesEndpoint.searchTranslations: {'en', 'ar', 'zh', 'de', 'el', 'ha', 'hi', 'id', 'xh', 'zu', 'it', 'ms', 'mr', 'nso', 'pt', 'qu', 'ru', 'tn', 'es', 'tt', 'te', 'tpi', 'tk', 'ur'},</v>
       </c>
       <c r="H8">
@@ -3507,15 +3508,15 @@
         <v>Search Thesaurus</v>
       </c>
       <c r="B9" t="str">
-        <f>"OxFordDictionariesEndpoint."&amp;LOWER(I9)&amp;J9</f>
+        <f t="shared" si="0"/>
         <v>OxFordDictionariesEndpoint.searchThesaurus</v>
       </c>
       <c r="C9" t="str">
+        <f t="shared" si="2"/>
+        <v>{'en'},</v>
+      </c>
+      <c r="D9" t="str">
         <f t="shared" si="1"/>
-        <v>{'en'},</v>
-      </c>
-      <c r="D9" t="str">
-        <f t="shared" si="0"/>
         <v>OxFordDictionariesEndpoint.searchThesaurus: {'en'},</v>
       </c>
       <c r="H9">
@@ -3684,15 +3685,15 @@
         <v>Translations</v>
       </c>
       <c r="B10" t="str">
-        <f>"OxFordDictionariesEndpoint."&amp;LOWER(I10)&amp;J10</f>
+        <f t="shared" si="0"/>
         <v>OxFordDictionariesEndpoint.translations</v>
       </c>
       <c r="C10" t="str">
+        <f t="shared" si="2"/>
+        <v>{'en', 'ar', 'zh', 'de', 'el', 'ha', 'hi', 'id', 'xh', 'zu', 'it', 'ms', 'mr', 'nso', 'pt', 'qu', 'ru', 'tn', 'es', 'tt', 'te', 'tpi', 'tk', 'ur'},</v>
+      </c>
+      <c r="D10" t="str">
         <f t="shared" si="1"/>
-        <v>{'en', 'ar', 'zh', 'de', 'el', 'ha', 'hi', 'id', 'xh', 'zu', 'it', 'ms', 'mr', 'nso', 'pt', 'qu', 'ru', 'tn', 'es', 'tt', 'te', 'tpi', 'tk', 'ur'},</v>
-      </c>
-      <c r="D10" t="str">
-        <f t="shared" si="0"/>
         <v>OxFordDictionariesEndpoint.translations: {'en', 'ar', 'zh', 'de', 'el', 'ha', 'hi', 'id', 'xh', 'zu', 'it', 'ms', 'mr', 'nso', 'pt', 'qu', 'ru', 'tn', 'es', 'tt', 'te', 'tpi', 'tk', 'ur'},</v>
       </c>
       <c r="H10">
@@ -3858,15 +3859,15 @@
         <v>Thesaurus</v>
       </c>
       <c r="B11" t="str">
-        <f>"OxFordDictionariesEndpoint."&amp;LOWER(I11)&amp;J11</f>
+        <f t="shared" si="0"/>
         <v>OxFordDictionariesEndpoint.thesaurus</v>
       </c>
       <c r="C11" t="str">
+        <f t="shared" si="2"/>
+        <v>{'en'},</v>
+      </c>
+      <c r="D11" t="str">
         <f t="shared" si="1"/>
-        <v>{'en'},</v>
-      </c>
-      <c r="D11" t="str">
-        <f t="shared" si="0"/>
         <v>OxFordDictionariesEndpoint.thesaurus: {'en'},</v>
       </c>
       <c r="H11">
@@ -4032,15 +4033,15 @@
         <v>Sentences</v>
       </c>
       <c r="B12" t="str">
-        <f>"OxFordDictionariesEndpoint."&amp;LOWER(I12)&amp;J12</f>
+        <f t="shared" si="0"/>
         <v>OxFordDictionariesEndpoint.sentences</v>
       </c>
       <c r="C12" t="str">
+        <f t="shared" si="2"/>
+        <v>{'en', 'es'},</v>
+      </c>
+      <c r="D12" t="str">
         <f t="shared" si="1"/>
-        <v>{'en', 'es'},</v>
-      </c>
-      <c r="D12" t="str">
-        <f t="shared" si="0"/>
         <v>OxFordDictionariesEndpoint.sentences: {'en', 'es'},</v>
       </c>
       <c r="H12">
